--- a/ゲーム２仕様書.xlsx
+++ b/ゲーム２仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6c93e320ef567fa4/デスクトップ/01Oomura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{954AC4D9-266E-4260-B977-9949CBD6161C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22BADF9D-AC1C-475E-AB07-ED1454C2004E}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{954AC4D9-266E-4260-B977-9949CBD6161C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AD71B0C-59B2-4FB1-92B1-CE14038AF626}"/>
   <bookViews>
-    <workbookView xWindow="6090" yWindow="2025" windowWidth="18330" windowHeight="12060" xr2:uid="{128E9A81-7443-4D8E-B31F-B7AD8209C63F}"/>
+    <workbookView xWindow="2850" yWindow="3285" windowWidth="18330" windowHeight="12060" xr2:uid="{128E9A81-7443-4D8E-B31F-B7AD8209C63F}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書" sheetId="1" r:id="rId1"/>
@@ -550,21 +550,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -883,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0048A47E-4D17-42C0-844A-5594380240DC}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -899,10 +902,10 @@
         <v>26</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="5"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -917,34 +920,34 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>2</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>3</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>4</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="2">
         <v>5</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="2">
         <v>6</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="2">
         <v>7</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="2">
         <v>8</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="2">
         <v>9</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="2">
         <v>10</v>
       </c>
     </row>
@@ -957,36 +960,42 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>36</v>
       </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>21</v>
       </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>12</v>
       </c>
+      <c r="F8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="5"/>
+      <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
@@ -997,8 +1006,8 @@
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
@@ -1009,32 +1018,38 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>7</v>
       </c>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>17</v>
       </c>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>8</v>
       </c>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>27</v>
       </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="5"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
@@ -1045,44 +1060,51 @@
       <c r="B20" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>15</v>
       </c>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>6</v>
       </c>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>7</v>
       </c>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>9</v>
       </c>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>16</v>
       </c>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>28</v>
       </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>11</v>
       </c>
-      <c r="L27" s="5"/>
+      <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
@@ -1093,61 +1115,90 @@
       <c r="B29" t="s">
         <v>19</v>
       </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>20</v>
       </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>30</v>
       </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>34</v>
       </c>
+      <c r="G40" s="6"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="L40" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
